--- a/src/test/resources/template.xlsx
+++ b/src/test/resources/template.xlsx
@@ -5,13 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe\IdeaProjects\dapdf\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,12 +31,6 @@
     <t>AER Student Table</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Form Translation</t>
   </si>
   <si>
@@ -81,10 +73,16 @@
     <t>Translated_Name</t>
   </si>
   <si>
-    <t>Boom Value - {{Last Name}}</t>
-  </si>
-  <si>
-    <t>{{Last Name}}, {{First Name}}</t>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Boom Value - {{LastName}}</t>
+  </si>
+  <si>
+    <t>{{LastName}}, {{FirstName}}</t>
   </si>
 </sst>
 </file>
@@ -181,8 +179,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DataTable" displayName="DataTable" ref="A3:B5" totalsRowShown="0">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Last Name"/>
-    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="1" name="LastName"/>
+    <tableColumn id="2" name="FirstName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,14 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-    <sheetView workbookViewId="2">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,26 +494,26 @@
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -541,13 +533,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="2">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -566,15 +552,15 @@
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -585,7 +571,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>"{{Boom}} "&amp;E4</f>
@@ -608,13 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -624,7 +606,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -632,23 +614,23 @@
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
